--- a/Prediction/PremierLeague2025_26/Predicted_PremierLeague2025_26_table_matchday_0.xlsx
+++ b/Prediction/PremierLeague2025_26/Predicted_PremierLeague2025_26_table_matchday_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,26 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TOP4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TOP5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RELEGATION</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>ExpPoints</t>
         </is>
       </c>
@@ -459,8 +479,12 @@
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>78.40740361475758</v>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>77.78415282723644</v>
       </c>
     </row>
     <row r="3">
@@ -472,8 +496,12 @@
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>71.04169433902675</v>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>72.09722680216554</v>
       </c>
     </row>
     <row r="4">
@@ -485,8 +513,12 @@
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>69.60761765605744</v>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>68.60549704904238</v>
       </c>
     </row>
     <row r="5">
@@ -498,8 +530,12 @@
           <t>Chelsea</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>61.19059523844982</v>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>61.52722018553493</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +544,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>58.667242433806</v>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>58.88880445799801</v>
       </c>
     </row>
     <row r="7">
@@ -524,8 +564,12 @@
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>58.18470101956665</v>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>57.98105521406693</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +578,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>57.96692745868339</v>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>57.42532546530259</v>
       </c>
     </row>
     <row r="9">
@@ -550,8 +598,12 @@
           <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>54.47510781486172</v>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>54.69731458139393</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +612,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>53.08473200777513</v>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>52.14388024299829</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +629,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>52.37556634470595</v>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>52.06710236435932</v>
       </c>
     </row>
     <row r="12">
@@ -589,8 +649,12 @@
           <t>Manchester United</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>50.98972815657316</v>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>51.28649867493214</v>
       </c>
     </row>
     <row r="13">
@@ -602,8 +666,12 @@
           <t>Brentford</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>49.86546003938605</v>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>51.10735898605598</v>
       </c>
     </row>
     <row r="14">
@@ -615,8 +683,12 @@
           <t>Everton</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>44.80675437271706</v>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>45.64404316838646</v>
       </c>
     </row>
     <row r="15">
@@ -628,8 +700,12 @@
           <t>Fulham</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>44.36519838452566</v>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>43.55279677261844</v>
       </c>
     </row>
     <row r="16">
@@ -641,8 +717,12 @@
           <t>Nottingham Forest</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>40.07416932578278</v>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>40.70418084528933</v>
       </c>
     </row>
     <row r="17">
@@ -654,8 +734,12 @@
           <t>West Ham United</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>37.88176540412522</v>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>38.37735420158572</v>
       </c>
     </row>
     <row r="18">
@@ -667,8 +751,12 @@
           <t>Sunderland</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>37.06203242489602</v>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>37.63340043412545</v>
       </c>
     </row>
     <row r="19">
@@ -680,8 +768,12 @@
           <t>Burnley</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>35.60309170031238</v>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>35.14843568014878</v>
       </c>
     </row>
     <row r="20">
@@ -693,8 +785,12 @@
           <t>Leeds United</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>35.52836669700326</v>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>34.80902214506362</v>
       </c>
     </row>
     <row r="21">
@@ -706,8 +802,12 @@
           <t>Wolverhampton Wanderers</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>33.32723376466949</v>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>33.00560166274826</v>
       </c>
     </row>
   </sheetData>
